--- a/xlsx/凯尔特人_intext.xlsx
+++ b/xlsx/凯尔特人_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="233">
   <si>
     <t>凯尔特人</t>
   </si>
@@ -29,7 +29,7 @@
     <t>凯尔特人足球俱乐部</t>
   </si>
   <si>
-    <t>政策_政策_美國_凯尔特人</t>
+    <t>政策_政策_美国_凯尔特人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>凱爾特地區</t>
+    <t>凯尔特地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%B0%94%E5%85%B0</t>
@@ -77,13 +77,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B2%83%E7%88%BE%E9%83%A1</t>
   </si>
   <si>
-    <t>康沃爾郡</t>
+    <t>康沃尔郡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E5%B3%B6</t>
   </si>
   <si>
-    <t>曼島</t>
+    <t>曼岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%88%97%E5%A1%94%E5%B0%BC</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A1%9B%E5%B3%B6</t>
   </si>
   <si>
-    <t>不列顛島</t>
+    <t>不列颠岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E6%96%AF</t>
@@ -227,7 +227,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E4%BA%BA</t>
   </si>
   <si>
-    <t>蘇格蘭人</t>
+    <t>苏格兰人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%96%E5%B0%94%E4%BA%BA</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%AC%E4%BA%BA</t>
   </si>
   <si>
-    <t>維京人</t>
+    <t>维京人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E6%9B%BC%E4%BA%BA</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>加利西亞</t>
+    <t>加利西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%A9%E9%83%BD%E7%9A%84%E8%B5%AB%E5%8D%A1%E5%A1%94%E5%9F%83%E4%B9%8C%E6%96%AF</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%89%E6%81%AF%E5%A4%AA%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>琉息太尼亞</t>
+    <t>琉息太尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%87%B1%E7%88%BE%E7%89%B9%E8%AA%9E</t>
   </si>
   <si>
-    <t>原始凱爾特語</t>
+    <t>原始凯尔特语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E5%85%8B%E8%AF%AD</t>
@@ -377,25 +377,16 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>蘇格蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E5%A3%AB</t>
   </si>
   <si>
-    <t>威爾士</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>歐洲大陸</t>
+    <t>欧洲大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E5%B0%94%E7%89%B9</t>
@@ -425,33 +416,30 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>凱爾特國家</t>
+    <t>凯尔特国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>凱爾特聯盟</t>
+    <t>凯尔特联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E7%93%A6%E7%88%BE</t>
   </si>
   <si>
-    <t>康瓦爾</t>
+    <t>康瓦尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>北愛爾蘭</t>
+    <t>北爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E7%88%BE%E6%96%AF</t>
   </si>
   <si>
-    <t>威爾斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%9B%BE%E9%87%8C%E4%BA%9A%E6%96%AF</t>
   </si>
   <si>
@@ -461,27 +449,21 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E8%AA%9E%E6%97%8F</t>
   </si>
   <si>
-    <t>凱爾特語族</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%AB%8B%E5%90%9E%E4%BA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>布立吞亞支</t>
+    <t>布立吞亚支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E4%BA%9E%E6%94%AF</t>
   </si>
   <si>
-    <t>蓋爾亞支</t>
+    <t>盖尔亚支</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E8%98%AD%E8%93%8B%E7%88%BE%E8%AA%9E</t>
   </si>
   <si>
-    <t>蘇格蘭蓋爾語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E5%90%88%E8%AF%AD</t>
   </si>
   <si>
@@ -491,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%AA%E7%88%BE%E5%A1%94%E8%AA%9E</t>
   </si>
   <si>
-    <t>雪爾塔語</t>
+    <t>雪尔塔语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E6%B2%B3%E8%A9%B1</t>
   </si>
   <si>
-    <t>紅河話</t>
+    <t>红河话</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Celts_(modern)</t>
@@ -575,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%88%BE%E7%89%B9%E9%9F%B3%E6%A8%82</t>
   </si>
   <si>
-    <t>凱爾特音樂</t>
+    <t>凯尔特音乐</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Music_of_Brittany</t>
@@ -653,25 +635,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%A3%BA</t>
   </si>
   <si>
-    <t>冰壺</t>
+    <t>冰壶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E5%BC%8F%E8%B6%B3%E7%90%83</t>
   </si>
   <si>
-    <t>蓋爾式足球</t>
+    <t>盖尔式足球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E7%88%BE%E5%BC%8F%E6%89%8B%E7%90%83</t>
   </si>
   <si>
-    <t>蓋爾式手球</t>
+    <t>盖尔式手球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%A4%AB%E7%90%83</t>
   </si>
   <si>
-    <t>高爾夫球</t>
+    <t>高尔夫球</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Gouren</t>
@@ -683,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%AD%E7%8E%8B</t>
   </si>
   <si>
-    <t>賭王</t>
+    <t>赌王</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Highland_games</t>
@@ -713,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -725,13 +707,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2842,7 +2824,7 @@
         <v>119</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="G61" t="n">
         <v>8</v>
@@ -2868,10 +2850,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -2897,10 +2879,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2984,10 +2966,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3013,10 +2995,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
         <v>27</v>
@@ -3042,10 +3024,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3071,10 +3053,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3100,10 +3082,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3158,10 +3140,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3187,10 +3169,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3216,10 +3198,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -3245,10 +3227,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3274,10 +3256,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="G76" t="n">
         <v>5</v>
@@ -3303,10 +3285,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3332,10 +3314,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F78" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3361,10 +3343,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F79" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3390,10 +3372,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F80" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3419,10 +3401,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F81" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3448,10 +3430,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F82" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3477,10 +3459,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F83" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3506,10 +3488,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F84" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3535,10 +3517,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F85" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3564,10 +3546,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F86" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3593,10 +3575,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F87" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3622,10 +3604,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F88" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3651,10 +3633,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F89" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3680,10 +3662,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F90" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3709,10 +3691,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F91" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3738,10 +3720,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F92" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3767,10 +3749,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F93" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3796,10 +3778,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F94" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3825,10 +3807,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F95" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3854,10 +3836,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3883,10 +3865,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3912,10 +3894,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3941,10 +3923,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3970,10 +3952,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3999,10 +3981,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4028,10 +4010,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4057,10 +4039,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4086,10 +4068,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4115,10 +4097,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4144,10 +4126,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4173,10 +4155,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4202,10 +4184,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4231,10 +4213,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4260,10 +4242,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4289,10 +4271,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4318,10 +4300,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4347,10 +4329,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4376,10 +4358,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4405,10 +4387,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4434,10 +4416,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4463,10 +4445,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4492,10 +4474,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4521,10 +4503,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4550,10 +4532,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4579,10 +4561,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -4608,10 +4590,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4637,10 +4619,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4666,10 +4648,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
